--- a/biology/Botanique/Alchemilla_fulgens/Alchemilla_fulgens.xlsx
+++ b/biology/Botanique/Alchemilla_fulgens/Alchemilla_fulgens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alchemilla fulgens, l'alchémille éclatante, est une espèce de plante herbacée vivace rustique, rhizomateuse, au port étalé, de la famille des Rosaceae. 
 Elle est originaire des Pyrénées.
@@ -514,13 +526,88 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Feuillage
-Ses feuilles sont arrondies et duveteuses, et présentent des lobes peu profonds, au nombre de 7 à 9.
+          <t>Feuillage</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses feuilles sont arrondies et duveteuses, et présentent des lobes peu profonds, au nombre de 7 à 9.
 Les feuilles sont bleu-vert sur le dessus et vert argenté au revers.
-Floraison
-Cymes de fleurs jaune verdâtre s'épanouissant de juin à août.
-Taille
-Environ 30 cm de haut pour 25 cm de diamètre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alchemilla_fulgens</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alchemilla_fulgens</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cymes de fleurs jaune verdâtre s'épanouissant de juin à août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alchemilla_fulgens</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alchemilla_fulgens</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Environ 30 cm de haut pour 25 cm de diamètre.
 </t>
         </is>
       </c>
